--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3267267.880005882</v>
+        <v>3262935.39518519</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8417584.230471389</v>
+        <v>8417584.230471388</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>156.5051793104575</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>257.9792381584242</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>213.9154470216035</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>164.0754296999795</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>143.1520950062524</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>129.0246247964035</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>173.0605700046217</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>109.4422623037125</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686237</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>142.9140233358191</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186444</v>
       </c>
       <c r="V13" t="n">
-        <v>185.7751589684416</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>106.1949878935058</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>71.22475183604979</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>117.6579322793575</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>24.27150084979074</v>
+        <v>41.02686156550228</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>240.8087637422603</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>173.1378795275017</v>
       </c>
     </row>
     <row r="29">
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>128.1870493703718</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>134.7851267360003</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994143047</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>5.623597659135302</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695493</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128537</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T39" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U39" t="n">
         <v>225.7478006422472</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462238</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012135</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>134.1795292011505</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>125.568759126142</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>108.0275736005886</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>245.8796921214435</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1099.346874905661</v>
+        <v>1487.242648509747</v>
       </c>
       <c r="C2" t="n">
-        <v>941.2608351981287</v>
+        <v>1118.280131569335</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>1118.280131569335</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>732.491878971091</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1859.412473230863</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.946714969783</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.946714969783</v>
+        <v>1873.842488573869</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1341.294330781294</v>
+        <v>1529.286147953399</v>
       </c>
       <c r="C5" t="n">
-        <v>972.3318138408822</v>
+        <v>1529.286147953399</v>
       </c>
       <c r="D5" t="n">
-        <v>614.0661152341316</v>
+        <v>1529.286147953399</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2497.522325784824</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2278.887658756887</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>2025.125873394978</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V5" t="n">
-        <v>1694.062986051408</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W5" t="n">
-        <v>1341.294330781294</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>1341.294330781294</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>1341.294330781294</v>
+        <v>1915.885988017521</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,46 +4643,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>184.2708856551155</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>184.2708856551155</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>184.2708856551155</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F7" t="n">
-        <v>184.2708856551155</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1560.797780174034</v>
+        <v>554.3221432721084</v>
       </c>
       <c r="C8" t="n">
-        <v>1191.835263233623</v>
+        <v>185.3596263316967</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977174</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990285</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2125.745768720171</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>2125.745768720171</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1735.606436744359</v>
+        <v>940.9219833362301</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4892,7 +4892,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>554.3544657309461</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>554.3544657309461</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>404.2378263186104</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>404.2378263186104</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>554.3544657309461</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>554.3544657309461</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>554.3544657309461</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>554.3544657309461</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>554.3544657309461</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>554.3544657309461</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>554.3544657309461</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,16 +5053,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5120,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5348780504994</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.734178129007</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.317008092047</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3274571940295</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5348780504994</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,31 +5275,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5357,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3737171343192</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>597.2570777219835</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5497,49 +5497,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075818</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5548,7 +5548,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123002</v>
@@ -5594,19 +5594,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
         <v>2129.438138565707</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>379.8591585748671</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6068,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.119922845744</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1652.717886400351</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2204.627616639638</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3173.601046153952</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>4416.415946780859</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U25" t="n">
-        <v>4127.340720125057</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>3872.65623191917</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>3583.239061882209</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>3355.249510984192</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>3355.249510984192</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6220,7 +6220,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6244,7 +6244,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6305,28 +6305,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>923.0670414349511</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1550.665004989558</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2102.574735228845</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3031.88921499615</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C28" t="n">
-        <v>3031.88921499615</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>2881.772575583814</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>2733.859482001421</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>2586.969534503511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3434.33025896992</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3434.33025896992</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3213.53767982639</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6545,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>244.2098454714574</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3161.37108304703</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3161.37108304703</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>3011.254443634695</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2863.341350052302</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2716.451402554391</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2549.255303269271</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3343.01954787727</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3343.01954787727</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6782,19 +6782,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.770787170036</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.169322192977</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.094095537175</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.409607331288</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1190.992437294328</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>963.0028863963103</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,10 +6928,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6940,28 +6940,28 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1138.603793935964</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192657</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111735</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075647</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332373</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014768</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355929</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068005</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,43 +7238,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756274</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>315.9123021921389</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921389</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M39" t="n">
-        <v>913.290789818693</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373302</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612591</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107661</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107661</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3093.254426444646</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>2924.318243516739</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>2774.201604104403</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>2626.28851052201</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>2479.3985630241</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>2479.3985630241</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866298</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866298</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296622</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822162</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998103</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729139</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389148</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>3542.036556486193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>3314.047005588176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>3093.254426444646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7496,19 +7496,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>996.5276398439761</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="C43" t="n">
-        <v>827.5914569160692</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D43" t="n">
-        <v>677.4748175037334</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E43" t="n">
-        <v>529.5617239213403</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7605,16 +7605,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1398.968683817746</v>
+        <v>1035.165434399143</v>
       </c>
       <c r="Y43" t="n">
-        <v>1178.176104674216</v>
+        <v>814.372855255613</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7727,25 +7727,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8464,7 +8464,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119837</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>-1.990467508685671e-11</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>-9.189731873468358e-13</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>-1.146346862790068e-12</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>32.89260457059976</v>
       </c>
       <c r="V13" t="n">
-        <v>66.36248435538639</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>40.23897475306333</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>116.6691671648107</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>147.359901516045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>27.76311574357379</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1339494774975</v>
+        <v>176.378588761786</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>45.71423459433066</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>45.44677382459307</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>12.10766347585209</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>46.24115926564434</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>220.0860577299019</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856532</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>152.3434691354405</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>19.8522888967892</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>117.6820817884486</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>6.257951202384504</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>710522.8824838417</v>
+        <v>710522.8824838419</v>
       </c>
     </row>
     <row r="6">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>710522.8824838419</v>
+        <v>710522.8824838417</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="F2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287552</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="J2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="N2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="O2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287554</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577088</v>
+        <v>944372.777757709</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.063298011819521e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.063298011819521e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080589</v>
       </c>
       <c r="N3" t="n">
-        <v>2.825266165018547e-09</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.012186009611469e-09</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>201064.5059277315</v>
       </c>
       <c r="C4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="D4" t="n">
         <v>201064.5059277315</v>
@@ -26429,16 +26429,16 @@
         <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
+        <v>5067.592601670438</v>
+      </c>
+      <c r="G4" t="n">
         <v>5067.592601670437</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5067.592601670485</v>
       </c>
       <c r="H4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="J4" t="n">
         <v>5067.592601670437</v>
@@ -26450,16 +26450,16 @@
         <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
+        <v>5067.592601670394</v>
+      </c>
+      <c r="N4" t="n">
         <v>5067.592601670437</v>
       </c>
-      <c r="N4" t="n">
-        <v>5067.592601670156</v>
-      </c>
       <c r="O4" t="n">
-        <v>5067.59260167042</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670416</v>
       </c>
     </row>
     <row r="5">
@@ -26505,7 +26505,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155479.9145744372</v>
+        <v>-155479.9145744374</v>
       </c>
       <c r="C6" t="n">
-        <v>434487.9646401068</v>
+        <v>434487.964640107</v>
       </c>
       <c r="D6" t="n">
         <v>434487.964640107</v>
       </c>
       <c r="E6" t="n">
-        <v>-344309.6254545308</v>
+        <v>-344657.0047088884</v>
       </c>
       <c r="F6" t="n">
-        <v>600063.152303178</v>
+        <v>599715.7730488208</v>
       </c>
       <c r="G6" t="n">
-        <v>600063.1523031776</v>
+        <v>599715.7730488211</v>
       </c>
       <c r="H6" t="n">
-        <v>600063.1523031776</v>
+        <v>599715.7730488209</v>
       </c>
       <c r="I6" t="n">
-        <v>600063.1523031776</v>
+        <v>599715.7730488207</v>
       </c>
       <c r="J6" t="n">
-        <v>423639.9331105851</v>
+        <v>423292.553856228</v>
       </c>
       <c r="K6" t="n">
-        <v>600063.1523031779</v>
+        <v>599715.7730488207</v>
       </c>
       <c r="L6" t="n">
-        <v>600063.1523031775</v>
+        <v>599715.7730488213</v>
       </c>
       <c r="M6" t="n">
-        <v>475854.6415951193</v>
+        <v>475507.262340762</v>
       </c>
       <c r="N6" t="n">
-        <v>600063.1523031754</v>
+        <v>599715.7730488209</v>
       </c>
       <c r="O6" t="n">
-        <v>600063.1523031804</v>
+        <v>599715.7730488209</v>
       </c>
       <c r="P6" t="n">
-        <v>600063.1523031779</v>
+        <v>599715.7730488211</v>
       </c>
     </row>
   </sheetData>
@@ -26700,13 +26700,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26773,7 +26773,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341678</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26822,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245871</v>
+        <v>990.2318361245874</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,13 +26992,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N3" t="n">
-        <v>4.092726157978177e-12</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.844660891962333e-12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>208.7677124605501</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>148.8968075832872</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27593,16 +27593,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>72.60755131498752</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>200.3937499721748</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>217.8549403722823</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>31.26361780271912</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>38.28517746264737</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>209.6732716588589</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>245.2407793169705</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>69.23151561419976</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>669.5976799347666</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>272.756932936465</v>
       </c>
       <c r="M15" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>305.1876769472509</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32788,13 +32788,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32806,10 +32806,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>250.3097721075164</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33025,16 +33025,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33043,13 +33043,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>316.3837382263852</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>138.5955196772184</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,13 +33511,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990634</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348449</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135358</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067238</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663296</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817596</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162587</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175704</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159455</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460056</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236531</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.873223366924</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043736</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292904</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651535</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078759</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659458</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521109</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420763</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>211.022243637502</v>
+        <v>248.0319961154042</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862143</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071808</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437263</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214715</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418566</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742454</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937737</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.193581438727596</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189911</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121577</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869296</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796267</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355187</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588164</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392057</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106799</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920068</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417323</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515933</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670481</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532779</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099325</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467226</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34216,10 +34216,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M42" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
@@ -34231,7 +34231,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34447,16 +34447,16 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>698.850866879865</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
@@ -34468,7 +34468,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492232</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>527.4636460127483</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565909</v>
       </c>
       <c r="M15" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>167.3462379728919</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36132,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36454,10 +36454,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>116.3353646931862</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36691,13 +36691,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>182.409330812055</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,10 +36840,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7540807028594299</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>303.878697277045</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317881</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396433</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367588</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462715</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902977</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193545</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243188</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683836</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924745</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902415</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754096</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>73.18080466314295</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641961</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238475</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992819</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071412</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789265</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.0464832629539</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096358</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191325</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010463</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899086</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060464</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066258</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998989</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
@@ -37864,10 +37864,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M42" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
@@ -37879,7 +37879,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
         <v>632.079992146269</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>556.7168329578466</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3262935.39518519</v>
+        <v>3264695.925487975</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8417584.230471388</v>
+        <v>8417584.230471389</v>
       </c>
     </row>
     <row r="11">
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>257.9792381584242</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>264.8873624375078</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>164.0754296999795</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>347.8605458933744</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>109.4422623037125</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>133.9566202902067</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>25.31590541686237</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>64.4060130769136</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>253.2918698186444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>28.75188085812055</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>75.5520862197295</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>41.02686156550228</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>129.1078928223853</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>173.1378795275017</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3237,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>180.1003471321691</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.33703994143047</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3751,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>108.0275736005886</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>113.5413580759696</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4318,7 +4318,7 @@
         <v>732.491878971091</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>321.5059741814834</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4494,43 +4494,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
         <v>702.55736257324</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1529.286147953399</v>
+        <v>1529.2861479534</v>
       </c>
       <c r="C5" t="n">
-        <v>1529.286147953399</v>
+        <v>1529.2861479534</v>
       </c>
       <c r="D5" t="n">
-        <v>1529.286147953399</v>
+        <v>1529.2861479534</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1143.497895355155</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>732.5119905655479</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,19 +4591,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
         <v>2289.351746278601</v>
@@ -4643,13 +4643,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
         <v>713.8062203571349</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>156.7517573047577</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>554.3221432721084</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C8" t="n">
-        <v>185.3596263316967</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097701</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097701</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977174</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362301</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359519</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355875</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5038,31 +5038,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5123,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>996.5276398439756</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>827.5914569160688</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>677.474817503733</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>529.5617239213399</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>382.6717764234295</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1178.176104674215</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5363,22 +5363,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>710.248605371872</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400717</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E16" t="n">
-        <v>513.8536007400717</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>337.3280009388793</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>170.1319016537593</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5475,13 +5475,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="17">
@@ -5497,46 +5497,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5597,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>409.1360811687895</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,16 +5977,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5995,7 +5995,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6074,16 +6074,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6308,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>559.7594328861248</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>390.823249958218</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>240.7066105458822</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6429,7 +6429,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>741.4078977163646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="35">
@@ -6931,37 +6931,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,19 +7171,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7192,7 +7192,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
@@ -7256,25 +7256,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>352.5519571452613</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797189</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7429,7 +7429,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>632.7243904253733</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7611,10 +7611,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1035.165434399143</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>814.372855255613</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7651,25 +7651,25 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245705</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>-1.146346862790068e-12</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>101.1181252153552</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>32.89260457059976</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>116.6691671648107</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>64.74262662649436</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>176.378588761786</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>16.31315520054599</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>45.44677382459307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>106.084127257075</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>117.6820817884486</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>32.89260457059957</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>710522.8824838419</v>
+        <v>710522.8824838417</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>710522.8824838417</v>
+        <v>710522.8824838419</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>710522.8824838417</v>
+        <v>710522.8824838419</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>710522.8824838417</v>
+        <v>710522.8824838419</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="F2" t="n">
         <v>706253.2747287551</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="G2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287551</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.777757709</v>
+        <v>944372.7777577088</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080589</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>201064.5059277315</v>
       </c>
       <c r="C4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
         <v>201064.5059277315</v>
@@ -26429,28 +26429,28 @@
         <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670416</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670417</v>
       </c>
       <c r="H4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="L4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670394</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
         <v>5067.592601670437</v>
@@ -26459,7 +26459,7 @@
         <v>5067.592601670438</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670416</v>
+        <v>5067.592601670437</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155479.9145744374</v>
+        <v>-155479.9145744378</v>
       </c>
       <c r="C6" t="n">
-        <v>434487.964640107</v>
+        <v>434487.9646401071</v>
       </c>
       <c r="D6" t="n">
-        <v>434487.964640107</v>
+        <v>434487.9646401068</v>
       </c>
       <c r="E6" t="n">
-        <v>-344657.0047088884</v>
+        <v>-344344.3633799666</v>
       </c>
       <c r="F6" t="n">
-        <v>599715.7730488208</v>
+        <v>600028.4143777417</v>
       </c>
       <c r="G6" t="n">
-        <v>599715.7730488211</v>
+        <v>600028.414377742</v>
       </c>
       <c r="H6" t="n">
-        <v>599715.7730488209</v>
+        <v>600028.4143777423</v>
       </c>
       <c r="I6" t="n">
-        <v>599715.7730488207</v>
+        <v>600028.4143777422</v>
       </c>
       <c r="J6" t="n">
-        <v>423292.553856228</v>
+        <v>423605.1951851489</v>
       </c>
       <c r="K6" t="n">
-        <v>599715.7730488207</v>
+        <v>600028.4143777419</v>
       </c>
       <c r="L6" t="n">
-        <v>599715.7730488213</v>
+        <v>600028.4143777419</v>
       </c>
       <c r="M6" t="n">
-        <v>475507.262340762</v>
+        <v>475819.903669684</v>
       </c>
       <c r="N6" t="n">
-        <v>599715.7730488209</v>
+        <v>600028.414377742</v>
       </c>
       <c r="O6" t="n">
-        <v>599715.7730488209</v>
+        <v>600028.4143777422</v>
       </c>
       <c r="P6" t="n">
-        <v>599715.7730488211</v>
+        <v>600028.414377742</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245874</v>
+        <v>990.2318361245871</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26992,10 +26992,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450931</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>148.8968075832872</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>200.3937499721748</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>217.8549403722823</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>65.92362412742062</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>46.83478528866308</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>245.2407793169705</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>85.98948845797264</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>14.65885272800568</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1051426060689</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753698</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>677.7372574190229</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32083,25 +32083,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>272.756932936465</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>305.1876769472509</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32794,7 +32794,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32806,7 +32806,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33028,28 +33028,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33265,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33280,7 +33280,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33502,25 +33502,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N33" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>446.0127311990634</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33976,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>248.0319961154042</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>175.6052721551105</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
@@ -34468,7 +34468,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181304</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533515</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>535.1410129745784</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K14" t="n">
         <v>479.4543240367771</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>134.2025531565909</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K17" t="n">
         <v>479.4543240367771</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>167.3462379728919</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36442,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36454,7 +36454,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36676,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,10 +36840,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36913,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36928,7 +36928,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37150,25 +37150,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>303.878697277045</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>110.1905571410452</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
         <v>632.079992146269</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>37.76383318075146</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
